--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110539.5801869533</v>
+        <v>109019.5932793231</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23511606.65325126</v>
+        <v>23347074.56340345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8806943.2466507</v>
+        <v>8645685.345390847</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4966764.269320867</v>
+        <v>5020838.360748817</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>337.9090357396033</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400.2191742817121</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>141.4990587636995</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>169.016847353155</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.65538200560648</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>67.2427605264751</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1054,16 +1056,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>16.87089136023326</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.63225008663303</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>58.05779479266912</v>
+      </c>
+      <c r="D8" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>47.19257816140961</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1379,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>44.46090527466789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>46.26926615534656</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>141.3076780977018</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.9262765069321</v>
       </c>
       <c r="E14" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>84.29140345193706</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>9.876816676608351</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>120.122206759728</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2132,13 +2134,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>173.719310750222</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>149.4370413361369</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2299,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>146.3752975271664</v>
+        <v>107.5742260334154</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2330,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>4.352703636393034</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>33.21427123988516</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>75.86622810093073</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>391.9563179089181</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2564,13 +2566,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>28.44483044901053</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>64.90507698037636</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2792,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>71.28824621501948</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>28.60468344882547</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>22.28534392847715</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>211.2315193548246</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>226.9431561163576</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3269,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>83.47888514108409</v>
+        <v>316.3957169748682</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345336</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>64.3130766292841</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>45.50306732735508</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.01514676193472</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,10 +3748,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>54.55340531488843</v>
+        <v>384.8771318086871</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225712</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>75.15914020541473</v>
+        <v>45.50306732735552</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U46" t="n">
-        <v>18.52611375512804</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1205.245432563908</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>776.6637583011761</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="D2" t="n">
-        <v>776.6637583011761</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="E2" t="n">
-        <v>435.3414999783445</v>
+        <v>840.020081554954</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1205.245432563908</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,40 +4397,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1199904125018</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1199904125018</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1286.957820178689</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.957820178689</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1014.931415764981</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5396610983935</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.1199904125018</v>
+        <v>262.5057921365585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4568,22 +4570,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4644,25 +4646,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0602407069692</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>900.1131396518725</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1320.166038596776</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1320.166038596776</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.6920270441282</v>
+        <v>221.285430710942</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>48.72371919416696</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>48.72371919416696</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4723,25 +4725,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4756,19 +4758,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>640.5237201158209</v>
       </c>
       <c r="Y7" t="n">
-        <v>419.5106457631153</v>
+        <v>413.1040494299291</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>890.3927724551322</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="C8" t="n">
-        <v>461.8110981924006</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D8" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4805,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4829,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.183430080417</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="Y8" t="n">
-        <v>1316.69234294004</v>
+        <v>949.4537989923044</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00734176206596</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>60.00734176206596</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L9" t="n">
-        <v>60.00734176206596</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M9" t="n">
-        <v>60.00734176206596</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N9" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>900.1131396518725</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8255074025963</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4966,46 +4968,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1349.663337168784</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1077.636932755076</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>832.245178088488</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>604.8255074025963</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>462.2278875652606</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C11" t="n">
-        <v>462.2278875652606</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D11" t="n">
-        <v>462.2278875652606</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E11" t="n">
-        <v>462.2278875652606</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F11" t="n">
-        <v>34.36045797446834</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H11" t="n">
         <v>34.36045797446834</v>
@@ -5042,16 +5044,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5066,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W11" t="n">
-        <v>1289.656474686296</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X11" t="n">
-        <v>870.5140112656072</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y11" t="n">
-        <v>462.2278875652606</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5124,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.6786969831253</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5242,7 +5244,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.4973157021125</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>891.1070171270717</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C14" t="n">
-        <v>462.52534286434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>1292.207393204728</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5291,7 +5293,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5318,10 +5320,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1278.040966659728</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H16" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
@@ -5440,16 +5442,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1235.38760622724</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1235.38760622724</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
         <v>1528.990655216085</v>
@@ -5461,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1612.040598310784</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1612.040598310784</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1612.040598310784</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1612.040598310784</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>1612.040598310784</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>1366.648843644196</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>873.1855120707613</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="C17" t="n">
-        <v>873.1855120707613</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D17" t="n">
-        <v>873.1855120707613</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E17" t="n">
-        <v>873.1855120707613</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F17" t="n">
-        <v>445.3180824799691</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>43.92025110323294</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>2143.869809458898</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>1724.727346038208</v>
       </c>
       <c r="Y17" t="n">
-        <v>873.1855120707613</v>
+        <v>1316.441222337862</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D18" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E18" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5656667282782</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L18" t="n">
-        <v>384.5656667282782</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M18" t="n">
-        <v>384.5656667282782</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N18" t="n">
-        <v>384.5656667282782</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P18" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q18" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S18" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T18" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U18" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V18" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W18" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L19" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M19" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N19" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O19" t="n">
-        <v>1235.38760622724</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5735,43 +5737,43 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194208</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K20" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M20" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.081325612185</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O20" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P20" t="n">
-        <v>2123.562040472833</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5780,22 +5782,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2410.934901352414</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U20" t="n">
-        <v>2151.712598669431</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V20" t="n">
-        <v>1789.095648603258</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W20" t="n">
-        <v>1789.095648603258</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X20" t="n">
-        <v>1789.095648603258</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y20" t="n">
-        <v>1789.095648603258</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1132.45937714051</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C22" t="n">
-        <v>959.897665623735</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D22" t="n">
-        <v>794.0196728252577</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E22" t="n">
-        <v>624.2616690759949</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F22" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G22" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5914,7 +5916,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
@@ -5932,28 +5934,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W22" t="n">
-        <v>1699.551502431416</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X22" t="n">
-        <v>1551.697666545389</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y22" t="n">
-        <v>1324.277995859497</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2112.16947176165</v>
+        <v>1754.583695154438</v>
       </c>
       <c r="C23" t="n">
-        <v>1674.026998945073</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D23" t="n">
-        <v>1238.117214119518</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E23" t="n">
-        <v>804.3424692778128</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F23" t="n">
-        <v>376.4750396870206</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G23" t="n">
-        <v>376.4750396870206</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
-        <v>97.01268370468912</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K23" t="n">
-        <v>931.362975662867</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L23" t="n">
-        <v>931.362975662867</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M23" t="n">
-        <v>931.362975662867</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="N23" t="n">
-        <v>2012.255929149549</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O23" t="n">
-        <v>2992.435595719855</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P23" t="n">
-        <v>3820.745470553251</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q23" t="n">
-        <v>4367.244256511845</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
-        <v>4367.244256511845</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>4283.592382695682</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4063.525155568721</v>
+        <v>2582.012282275474</v>
       </c>
       <c r="U23" t="n">
-        <v>3804.302852885738</v>
+        <v>2582.012282275474</v>
       </c>
       <c r="V23" t="n">
-        <v>3770.753083956561</v>
+        <v>2582.012282275474</v>
       </c>
       <c r="W23" t="n">
-        <v>3365.897629367594</v>
+        <v>2582.012282275474</v>
       </c>
       <c r="X23" t="n">
-        <v>2946.755165946905</v>
+        <v>2162.869818854785</v>
       </c>
       <c r="Y23" t="n">
-        <v>2538.469042246558</v>
+        <v>1754.583695154438</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.5166301215297</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>487.060168958172</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>391.9698801047252</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>297.8494654316789</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>214.4656270478405</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0805373140244</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>113.4085582906945</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>437.9668832569068</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>1092.672929882631</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1633.411868514706</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>1750.584646609046</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>1687.129209057429</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>1556.950565388031</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>1380.614018387999</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>1181.496500449998</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>996.1737461831922</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>841.3063104220721</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>714.8205312012929</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1166.403045742118</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>993.8413342253433</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>827.963341426866</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>658.2053376776032</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>481.4982836393594</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>315.907008665187</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>176.0048343555616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>87.3448851302369</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
-        <v>173.9245702949268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>448.6830248660624</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>866.8929066340235</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1326.376773814936</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1768.635576972581</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
-        <v>2188.304826198362</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2535.811720168704</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2704.004495033037</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2458.125048611492</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2179.692047864597</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>2103.059494227293</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1831.033089813585</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1585.641335146997</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1358.221664461106</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2190.493479979994</v>
+        <v>1650.358373569249</v>
       </c>
       <c r="C26" t="n">
-        <v>1752.351007163417</v>
+        <v>1212.215900752673</v>
       </c>
       <c r="D26" t="n">
-        <v>1316.441222337862</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E26" t="n">
-        <v>882.6664774961569</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F26" t="n">
-        <v>454.7990479053647</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G26" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K26" t="n">
-        <v>801.8819313892766</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M26" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N26" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O26" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P26" t="n">
-        <v>2123.562040472833</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q26" t="n">
         <v>2670.060826431428</v>
@@ -6251,25 +6253,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U26" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V26" t="n">
-        <v>2586.408952615265</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W26" t="n">
-        <v>2586.408952615265</v>
+        <v>2058.644497269596</v>
       </c>
       <c r="X26" t="n">
-        <v>2586.408952615265</v>
+        <v>2058.644497269596</v>
       </c>
       <c r="Y26" t="n">
-        <v>2586.408952615265</v>
+        <v>1650.358373569249</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J27" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K27" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="N27" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="O27" t="n">
-        <v>1058.729261281022</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P27" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q27" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.8950539462408</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C28" t="n">
-        <v>590.3333424294657</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4553496309884</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E28" t="n">
-        <v>424.4553496309884</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6388,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6406,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.7136726652279</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2078.225803160042</v>
+        <v>815.9375319722691</v>
       </c>
       <c r="C29" t="n">
-        <v>1640.083330343465</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D29" t="n">
-        <v>1204.173545517909</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E29" t="n">
-        <v>770.3988006762045</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F29" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
@@ -6479,34 +6481,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V29" t="n">
-        <v>2078.225803160042</v>
+        <v>2048.221573682272</v>
       </c>
       <c r="W29" t="n">
-        <v>2078.225803160042</v>
+        <v>1643.366119093305</v>
       </c>
       <c r="X29" t="n">
-        <v>2078.225803160042</v>
+        <v>1224.223655672616</v>
       </c>
       <c r="Y29" t="n">
-        <v>2078.225803160042</v>
+        <v>815.9375319722691</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.2081529410129</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>705.6464414242379</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>539.7684486257606</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>370.0104448764978</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>193.303390838254</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6646,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2626.132556724197</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2380.253110302652</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>2101.820109555757</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.864601426188</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1542.838197012479</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1297.446442345892</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1070.02677166</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1208.541273492781</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="C32" t="n">
-        <v>770.3988006762045</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="D32" t="n">
-        <v>770.3988006762045</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E32" t="n">
-        <v>770.3988006762045</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F32" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K32" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L32" t="n">
-        <v>488.6559039815464</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O32" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V32" t="n">
-        <v>2440.825315202784</v>
+        <v>2223.792002549092</v>
       </c>
       <c r="W32" t="n">
-        <v>2035.969860613817</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="X32" t="n">
-        <v>1616.827397193128</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="Y32" t="n">
-        <v>1208.541273492781</v>
+        <v>1818.936547960125</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C33" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D33" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E33" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F33" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G33" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J33" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P33" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R33" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S33" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T33" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U33" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V33" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W33" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X33" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y33" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6862,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1754.583695154438</v>
+        <v>1361.228219012466</v>
       </c>
       <c r="C35" t="n">
-        <v>1316.441222337862</v>
+        <v>923.085746195889</v>
       </c>
       <c r="D35" t="n">
-        <v>1316.441222337862</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E35" t="n">
-        <v>882.6664774961569</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6950,37 +6952,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W35" t="n">
-        <v>2265.205371842461</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X35" t="n">
-        <v>2180.883265639346</v>
+        <v>1787.527789497373</v>
       </c>
       <c r="Y35" t="n">
-        <v>2180.883265639346</v>
+        <v>1787.527789497373</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C36" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D36" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E36" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F36" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G36" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I36" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J36" t="n">
-        <v>377.9595414948409</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K36" t="n">
-        <v>1038.799596036619</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L36" t="n">
-        <v>1699.639650578398</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M36" t="n">
-        <v>1699.639650578398</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N36" t="n">
-        <v>1699.639650578398</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O36" t="n">
-        <v>1699.639650578398</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P36" t="n">
-        <v>1716.640978007438</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q36" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R36" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S36" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T36" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U36" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V36" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W36" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X36" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y36" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516122</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348371</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363599</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870971</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028008</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862846</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862846</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136787</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056491</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705994</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1789.512437976118</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C38" t="n">
         <v>1351.369965159541</v>
@@ -7160,40 +7162,40 @@
         <v>481.6854354922808</v>
       </c>
       <c r="F38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M38" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N38" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O38" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7214,10 +7216,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="X38" t="n">
-        <v>2624.098132161372</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y38" t="n">
-        <v>2215.812008461025</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C39" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D39" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E39" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F39" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G39" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J39" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P39" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R39" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S39" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T39" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U39" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V39" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W39" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X39" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y39" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>826.9659278567121</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>654.4042163399371</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>488.5262235414597</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>318.768219792197</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0611657539532</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0611657539532</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N40" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O40" t="n">
         <v>2154.361157596754</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2574.890331639896</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2329.010885218351</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>2050.577884471456</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1763.622376341887</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1491.595971928179</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
-        <v>1246.204217261591</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>1018.784546575699</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1361.228219012466</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="C41" t="n">
-        <v>923.0857461958889</v>
+        <v>917.5952203178363</v>
       </c>
       <c r="D41" t="n">
-        <v>487.1759613703334</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E41" t="n">
-        <v>53.40121652862856</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N41" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W41" t="n">
-        <v>2614.956376618409</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="X41" t="n">
-        <v>2195.81391319772</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="Y41" t="n">
-        <v>1787.527789497373</v>
+        <v>1355.737693134413</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482438</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314687</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329914</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837287</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454849</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131252</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933182</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644535</v>
       </c>
       <c r="L43" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324147</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
@@ -7594,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262988</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.76646671971</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.4716545351282</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M44" t="n">
-        <v>267.8706684926505</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N44" t="n">
-        <v>267.8706684926505</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V44" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W44" t="n">
-        <v>1208.676101675288</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X44" t="n">
-        <v>1132.757778235475</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.4716545351282</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5379433870891</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C46" t="n">
-        <v>800.5379433870891</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D46" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E46" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F46" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G46" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T46" t="n">
-        <v>1292.062614956869</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U46" t="n">
-        <v>1273.349368739568</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V46" t="n">
-        <v>1273.349368739568</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W46" t="n">
-        <v>1273.349368739568</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X46" t="n">
-        <v>1027.957614072981</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y46" t="n">
-        <v>800.5379433870891</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8216,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8614,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8772,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9088,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9401,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>88.52591951400996</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.765453105507291</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N23" t="n">
-        <v>1091.811064127961</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M32" t="n">
-        <v>667.515206607857</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11297,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="M44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11461,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22547,16 +22549,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>91.52796165368443</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.36958101317225</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22613,7 +22615,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>134.1496119757262</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>73.92098976676664</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>354.3811927744522</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22790,7 +22792,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>362.1942368668127</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22942,16 +22944,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>153.9652030413741</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>153.4281736251371</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22996,13 +22998,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>375.7032532957418</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.51708619436948</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23176,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -23194,10 +23196,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>236.8933748868642</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>356.3459947684091</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>357.9339963079966</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>29.52841630390549</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23425,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.97196474272903</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>30.62441047036776</v>
       </c>
       <c r="E14" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>73.35755156304624</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23740,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>276.3620363346075</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>238.8685738057837</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>44.14724410546981</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>107.1930383200163</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.56253959275526</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24257,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.5138512192987</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>325.7765093256265</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.08025687114059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>372.3620695940665</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.034906517485</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24680,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>362.4728018733914</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>330.3860971166862</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.3636110865062</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24917,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>220.3191676224753</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -24974,16 +24976,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>132.0476244491541</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>331.4721536453983</v>
+        <v>98.55532181161425</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>369.4479714591268</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>369.4479714591273</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>84.63380825304858</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25646,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>346.2534947281886</v>
+        <v>15.92976823438988</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -25925,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>339.7918985810677</v>
+        <v>369.4479714591268</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U46" t="n">
-        <v>257.1225569842977</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>349074.8977990032</v>
+        <v>349074.8977990031</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349074.8977990031</v>
+        <v>349074.8977990032</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349074.8977990031</v>
+        <v>349074.8977990032</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349074.8977990032</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>491063.9464457104</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681381.4934648931</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>491063.9464457104</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491063.9464457104</v>
+        <v>491063.9464457106</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491063.9464457105</v>
+        <v>491063.9464457106</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491063.9464457105</v>
+        <v>491063.9464457106</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491063.9464457105</v>
+        <v>491063.9464457106</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349074.8977990031</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>96161.87004965881</v>
       </c>
       <c r="C2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="D2" t="n">
         <v>96161.87004965881</v>
       </c>
       <c r="E2" t="n">
+        <v>96161.8700496588</v>
+      </c>
+      <c r="F2" t="n">
         <v>96161.87004965883</v>
       </c>
-      <c r="F2" t="n">
-        <v>96161.87004965881</v>
-      </c>
       <c r="G2" t="n">
-        <v>96161.87004965878</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="H2" t="n">
         <v>135276.4913831621</v>
       </c>
       <c r="I2" t="n">
-        <v>187704.4698485925</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="J2" t="n">
         <v>135276.4913831621</v>
@@ -26353,7 +26355,7 @@
         <v>135276.4913831621</v>
       </c>
       <c r="P2" t="n">
-        <v>96161.87004965881</v>
+        <v>135276.4913831621</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66662.77529471672</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>112829.1787276037</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>58530.97957731679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>24896.51517712573</v>
       </c>
       <c r="E4" t="n">
-        <v>24896.51517712572</v>
+        <v>24896.51517712573</v>
       </c>
       <c r="F4" t="n">
         <v>24896.51517712573</v>
       </c>
       <c r="G4" t="n">
-        <v>24896.51517712573</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="H4" t="n">
         <v>35023.37484795162</v>
       </c>
       <c r="I4" t="n">
-        <v>48597.09134178182</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="J4" t="n">
         <v>35023.37484795162</v>
       </c>
       <c r="K4" t="n">
+        <v>35023.37484795162</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35023.37484795162</v>
+      </c>
+      <c r="M4" t="n">
         <v>35023.37484795161</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>35023.37484795161</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="P4" t="n">
         <v>35023.37484795162</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35023.37484795162</v>
-      </c>
-      <c r="O4" t="n">
-        <v>35023.37484795162</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24896.51517712573</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>66382.11269898004</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-130350.7339243992</v>
       </c>
       <c r="C6" t="n">
-        <v>11840.56673531072</v>
+        <v>11840.56673531075</v>
       </c>
       <c r="D6" t="n">
         <v>11840.56673531075</v>
       </c>
       <c r="E6" t="n">
+        <v>45468.16673531073</v>
+      </c>
+      <c r="F6" t="n">
         <v>45468.16673531076</v>
       </c>
-      <c r="F6" t="n">
-        <v>45468.16673531075</v>
-      </c>
       <c r="G6" t="n">
-        <v>45468.16673531072</v>
+        <v>-6994.583321263985</v>
       </c>
       <c r="H6" t="n">
-        <v>-5954.577384564713</v>
+        <v>59668.19197345276</v>
       </c>
       <c r="I6" t="n">
-        <v>-40103.91291977301</v>
+        <v>59668.19197345276</v>
       </c>
       <c r="J6" t="n">
-        <v>59668.19197345274</v>
+        <v>-51346.27337153739</v>
       </c>
       <c r="K6" t="n">
+        <v>59668.1919734527</v>
+      </c>
+      <c r="L6" t="n">
         <v>59668.19197345273</v>
       </c>
-      <c r="L6" t="n">
-        <v>59668.19197345275</v>
-      </c>
       <c r="M6" t="n">
-        <v>59668.19197345274</v>
+        <v>59668.19197345281</v>
       </c>
       <c r="N6" t="n">
-        <v>59668.19197345277</v>
+        <v>59668.19197345278</v>
       </c>
       <c r="O6" t="n">
-        <v>59668.19197345274</v>
+        <v>1137.21239613599</v>
       </c>
       <c r="P6" t="n">
-        <v>45468.16673531075</v>
+        <v>59668.19197345276</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
-        <v>1091.811064127961</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35249,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>262.4693064538402</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35334,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35492,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P14" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P14" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35808,19 +35810,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35896,13 +35898,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P17" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>296.5687363523682</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L20" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>88.52591951400996</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,10 +36284,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.765453105507291</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N23" t="n">
-        <v>1091.811064127961</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36835,7 +36837,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M32" t="n">
-        <v>667.515206607857</v>
+        <v>469.6822035600076</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O32" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697544</v>
@@ -37145,7 +37147,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158827</v>
@@ -37230,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37318,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>316.389926674475</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L36" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37472,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P38" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158827</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37856,7 +37858,7 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158827</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908046</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="M44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,16 +38183,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109019.5932793231</v>
+        <v>103640.5178932935</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5020838.360748817</v>
+        <v>5020838.360748815</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400.2191742817121</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>162.9305469213887</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>169.016847353155</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>151.7773034811227</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>67.2427605264751</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>61.18636102668871</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>66.02906527349418</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>14.63225008663303</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>58.05779479266912</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>291.198916971795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>47.19257816140961</v>
+        <v>257.0476863260056</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1423,22 +1423,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>36.12101783046749</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.26926615534656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>261.0807034694559</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>156.2681271316377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>167.5142455217884</v>
       </c>
       <c r="D14" t="n">
-        <v>400.9262765069321</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>84.29140345193706</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>146.1497286896993</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>48.20747278413953</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>120.122206759728</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2086,13 +2086,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>40.23755513055364</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>149.4370413361369</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193452</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>107.5742260334154</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2332,13 +2332,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>4.352703636393034</v>
+        <v>24.49984233800278</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>121.4593361594092</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>28.44483044901053</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>71.28824621501948</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>322.2439590732708</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>211.2315193548246</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>248.0234188193429</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>251.4517175141766</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>316.3957169748682</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>26.7016084775207</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,16 +3505,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>64.3130766292841</v>
+        <v>419.796081847977</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3748,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>51.38653870063291</v>
       </c>
       <c r="W41" t="n">
-        <v>384.8771318086871</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>45.50306732735552</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>174.8095987446686</v>
       </c>
     </row>
     <row r="45">
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,25 +4333,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1277.130531135514</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1532.607120058813</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1273.384817375829</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1273.384817375829</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.5057921365585</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C4" t="n">
-        <v>262.5057921365585</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,16 +4494,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X4" t="n">
-        <v>262.5057921365585</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y4" t="n">
-        <v>262.5057921365585</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.2824383042412</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="C5" t="n">
-        <v>102.2824383042412</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="D5" t="n">
-        <v>102.2824383042412</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1292.504848503808</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.2824383042412</v>
+        <v>1292.504848503808</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.285430710942</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C7" t="n">
-        <v>48.72371919416696</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D7" t="n">
-        <v>48.72371919416696</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G7" t="n">
         <v>33.94366860160834</v>
@@ -4725,52 +4725,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N7" t="n">
-        <v>815.3347072823371</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W7" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X7" t="n">
-        <v>640.5237201158209</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y7" t="n">
-        <v>413.1040494299291</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>949.4537989923044</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C8" t="n">
-        <v>890.8095618279922</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="D8" t="n">
-        <v>462.2278875652606</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>328.5007781479987</v>
       </c>
       <c r="G8" t="n">
         <v>34.36045797446834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4837,19 +4837,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>949.4537989923044</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X8" t="n">
-        <v>949.4537989923044</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y8" t="n">
-        <v>949.4537989923044</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
         <v>1159.957753041174</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8255074025963</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C10" t="n">
-        <v>432.2637958858213</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D10" t="n">
-        <v>432.2637958858213</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E10" t="n">
-        <v>262.5057921365585</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4968,7 +4968,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
         <v>341.7616130750586</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1397.332608038895</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>1349.663337168784</v>
+        <v>1191.659856056847</v>
       </c>
       <c r="W10" t="n">
-        <v>1077.636932755076</v>
+        <v>1191.659856056847</v>
       </c>
       <c r="X10" t="n">
-        <v>832.245178088488</v>
+        <v>946.2681013902591</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.8255074025963</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>724.8884439079882</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C11" t="n">
-        <v>724.8884439079882</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D11" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E11" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F11" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G11" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
         <v>34.36045797446834</v>
@@ -5071,22 +5071,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U11" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V11" t="n">
-        <v>771.6250763881362</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W11" t="n">
-        <v>771.6250763881362</v>
+        <v>1317.823376984839</v>
       </c>
       <c r="X11" t="n">
-        <v>771.6250763881362</v>
+        <v>1317.823376984839</v>
       </c>
       <c r="Y11" t="n">
-        <v>724.8884439079882</v>
+        <v>1317.823376984839</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.6507226398521</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C13" t="n">
         <v>210.6507226398521</v>
@@ -5199,19 +5199,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K13" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L13" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M13" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N13" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5232,19 +5232,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1187.586101366493</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>900.6305932369232</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>628.6041888232147</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.6507226398521</v>
+        <v>383.2124341566272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1697.183430080417</v>
+        <v>604.5478085862115</v>
       </c>
       <c r="C14" t="n">
-        <v>1697.183430080417</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D14" t="n">
-        <v>1292.207393204728</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E14" t="n">
-        <v>863.6257189419966</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F14" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="15">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.4105542393174</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C16" t="n">
-        <v>774.8488427225424</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D16" t="n">
-        <v>608.9708499240651</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E16" t="n">
-        <v>439.2128461748023</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F16" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1612.040598310784</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1612.040598310784</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1612.040598310784</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V16" t="n">
-        <v>1612.040598310784</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W16" t="n">
-        <v>1612.040598310784</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.648843644196</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.229172958305</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1316.441222337862</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C17" t="n">
-        <v>1316.441222337862</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.441222337862</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="E17" t="n">
         <v>882.6664774961569</v>
@@ -5506,61 +5506,61 @@
         <v>454.7990479053647</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O17" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2548.725264047865</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>2143.869809458898</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X17" t="n">
-        <v>1724.727346038208</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y17" t="n">
-        <v>1316.441222337862</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5664,22 +5664,22 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K19" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M19" t="n">
         <v>1292.433105213328</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>532.1876844265726</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>94.04521160999587</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>94.04521160999587</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194209</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U20" t="n">
-        <v>2215.395219088166</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V20" t="n">
-        <v>2215.395219088166</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W20" t="n">
-        <v>2215.395219088166</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.395219088166</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
         <v>1716.640978007438</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.2081529410129</v>
+        <v>900.7186013536157</v>
       </c>
       <c r="C22" t="n">
-        <v>705.6464414242379</v>
+        <v>728.1568898368406</v>
       </c>
       <c r="D22" t="n">
-        <v>539.7684486257606</v>
+        <v>562.2788970383633</v>
       </c>
       <c r="E22" t="n">
-        <v>370.0104448764978</v>
+        <v>392.5208932891006</v>
       </c>
       <c r="F22" t="n">
-        <v>193.303390838254</v>
+        <v>215.8138392508568</v>
       </c>
       <c r="G22" t="n">
-        <v>193.303390838254</v>
+        <v>215.8138392508568</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5916,13 +5916,13 @@
         <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324152</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M22" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O22" t="n">
         <v>2154.361157596754</v>
@@ -5937,25 +5937,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V22" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X22" t="n">
-        <v>1297.446442345892</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y22" t="n">
-        <v>1070.02677166</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1754.583695154438</v>
+        <v>1353.602653150562</v>
       </c>
       <c r="C23" t="n">
-        <v>1316.441222337862</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="D23" t="n">
-        <v>1316.441222337862</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E23" t="n">
-        <v>882.6664774961569</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F23" t="n">
-        <v>454.7990479053647</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
@@ -6019,22 +6019,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2582.012282275474</v>
+        <v>2561.661637122333</v>
       </c>
       <c r="U23" t="n">
-        <v>2582.012282275474</v>
+        <v>2561.661637122333</v>
       </c>
       <c r="V23" t="n">
-        <v>2582.012282275474</v>
+        <v>2199.044687056159</v>
       </c>
       <c r="W23" t="n">
-        <v>2582.012282275474</v>
+        <v>2199.044687056159</v>
       </c>
       <c r="X23" t="n">
-        <v>2162.869818854785</v>
+        <v>1779.90222363547</v>
       </c>
       <c r="Y23" t="n">
-        <v>1754.583695154438</v>
+        <v>1779.90222363547</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6141,10 +6141,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1650.358373569249</v>
+        <v>1476.28885129138</v>
       </c>
       <c r="C26" t="n">
-        <v>1212.215900752673</v>
+        <v>1038.146378474803</v>
       </c>
       <c r="D26" t="n">
-        <v>776.3061159271172</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E26" t="n">
-        <v>342.5313710854123</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.081325612186</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M26" t="n">
-        <v>1375.081325612186</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N26" t="n">
-        <v>1375.081325612186</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O26" t="n">
-        <v>2035.921380153964</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P26" t="n">
-        <v>2123.562040472834</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q26" t="n">
         <v>2670.060826431428</v>
@@ -6256,22 +6256,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V26" t="n">
-        <v>2087.376649238293</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W26" t="n">
-        <v>2058.644497269596</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X26" t="n">
-        <v>2058.644497269596</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="Y26" t="n">
-        <v>1650.358373569249</v>
+        <v>1902.588421776288</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R27" t="n">
         <v>1716.640978007438</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C28" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D28" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E28" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F28" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6390,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6408,28 +6408,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R28" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y28" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>815.9375319722691</v>
+        <v>1355.320903761553</v>
       </c>
       <c r="C29" t="n">
-        <v>743.9292024621484</v>
+        <v>917.1784309449763</v>
       </c>
       <c r="D29" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="E29" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F29" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G29" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K29" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L29" t="n">
-        <v>1293.567921177998</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O29" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2410.838523748445</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.221573682272</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W29" t="n">
-        <v>1643.366119093305</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X29" t="n">
-        <v>1224.223655672616</v>
+        <v>1781.620474246461</v>
       </c>
       <c r="Y29" t="n">
-        <v>815.9375319722691</v>
+        <v>1781.620474246461</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>900.7186013536161</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1568898368411</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D31" t="n">
-        <v>562.2788970383638</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E31" t="n">
-        <v>392.520893289101</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8138392508572</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T31" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U31" t="n">
-        <v>2124.330557968361</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V31" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W31" t="n">
-        <v>1565.348645425083</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.956890758495</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1092.537220072603</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1818.936547960125</v>
+        <v>1650.358373569249</v>
       </c>
       <c r="C32" t="n">
-        <v>1818.936547960125</v>
+        <v>1212.215900752673</v>
       </c>
       <c r="D32" t="n">
-        <v>1605.571376894645</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E32" t="n">
-        <v>1171.796632052941</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F32" t="n">
-        <v>743.9292024621484</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G32" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L32" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M32" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N32" t="n">
-        <v>1840.066707136593</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6733,19 +6733,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U32" t="n">
-        <v>2586.408952615265</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V32" t="n">
-        <v>2223.792002549092</v>
+        <v>2076.657944054157</v>
       </c>
       <c r="W32" t="n">
-        <v>1818.936547960125</v>
+        <v>2076.657944054157</v>
       </c>
       <c r="X32" t="n">
-        <v>1818.936547960125</v>
+        <v>2076.657944054157</v>
       </c>
       <c r="Y32" t="n">
-        <v>1818.936547960125</v>
+        <v>2076.657944054157</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C34" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D34" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E34" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F34" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6864,7 +6864,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T34" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U34" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W34" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X34" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y34" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1361.228219012466</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="C35" t="n">
-        <v>923.085746195889</v>
+        <v>741.5843845958971</v>
       </c>
       <c r="D35" t="n">
-        <v>487.1759613703334</v>
+        <v>741.5843845958971</v>
       </c>
       <c r="E35" t="n">
-        <v>53.40121652862857</v>
+        <v>307.8096397541922</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862857</v>
+        <v>307.8096397541922</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>307.8096397541922</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6955,10 +6955,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6967,22 +6967,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>2107.119422805321</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W35" t="n">
-        <v>2107.119422805321</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X35" t="n">
-        <v>1787.527789497373</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y35" t="n">
-        <v>1787.527789497373</v>
+        <v>1179.726857412474</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C36" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D36" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E36" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F36" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G36" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J36" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P36" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R36" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S36" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T36" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U36" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V36" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W36" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X36" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y36" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E37" t="n">
-        <v>413.9387145837291</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F37" t="n">
-        <v>237.2316605454853</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G37" t="n">
-        <v>71.64038557131298</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7119,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1416.332668825485</v>
+        <v>913.3474476652719</v>
       </c>
       <c r="C38" t="n">
-        <v>1351.369965159541</v>
+        <v>489.311001354184</v>
       </c>
       <c r="D38" t="n">
-        <v>915.4601803339856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E38" t="n">
-        <v>481.6854354922808</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K38" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L38" t="n">
-        <v>488.6559039815464</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M38" t="n">
-        <v>488.6559039815464</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N38" t="n">
-        <v>632.7278666362199</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O38" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W38" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X38" t="n">
-        <v>2250.918363010739</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y38" t="n">
-        <v>1842.632239310392</v>
+        <v>1339.64701815018</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7326,10 +7326,10 @@
         <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
         <v>139.9809016933184</v>
@@ -7338,7 +7338,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1355.737693134413</v>
+        <v>1650.358373569249</v>
       </c>
       <c r="C41" t="n">
-        <v>917.5952203178363</v>
+        <v>1212.215900752673</v>
       </c>
       <c r="D41" t="n">
-        <v>481.6854354922808</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E41" t="n">
-        <v>481.6854354922808</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F41" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G41" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K41" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M41" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7441,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739147</v>
+        <v>2055.213828158216</v>
       </c>
       <c r="W41" t="n">
-        <v>1355.737693134413</v>
+        <v>1650.358373569249</v>
       </c>
       <c r="X41" t="n">
-        <v>1355.737693134413</v>
+        <v>1650.358373569249</v>
       </c>
       <c r="Y41" t="n">
-        <v>1355.737693134413</v>
+        <v>1650.358373569249</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C43" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D43" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E43" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F43" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G43" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933182</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K43" t="n">
-        <v>414.7393562644535</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324147</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7596,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T43" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V43" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.512437976118</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C44" t="n">
-        <v>1351.369965159541</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D44" t="n">
-        <v>915.4601803339856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E44" t="n">
-        <v>481.6854354922808</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F44" t="n">
-        <v>53.81800590148856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>53.81800590148856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K44" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L44" t="n">
-        <v>1348.380717347871</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M44" t="n">
-        <v>1348.380717347871</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N44" t="n">
-        <v>1348.380717347871</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>2624.098132161372</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.812008461025</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C46" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F46" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7830,28 +7830,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T46" t="n">
-        <v>2634.504334502149</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U46" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V46" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W46" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X46" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y46" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -8388,13 +8388,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,16 +8534,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8616,10 +8616,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201043</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8929,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645587</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>469.6822035600076</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>466.3240083888434</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,22 +10354,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M32" t="n">
-        <v>469.6822035600076</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>640.544895229762</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.36958101317225</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>54.93600793430306</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>73.92098976676664</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>73.36817049791011</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>362.1942368668127</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>297.804419538823</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>123.8713672583031</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>153.4281736251371</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23023,19 +23023,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>375.7032532957418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>106.1849360911737</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -23077,13 +23077,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>236.8933748868642</v>
+        <v>27.03826672226819</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>364.6858822126095</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.9339963079966</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>14.56796726996981</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.8773468473951</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>266.2468025666225</v>
       </c>
       <c r="D14" t="n">
-        <v>30.62441047036776</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>73.35755156304624</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -23718,7 +23718,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>96.78810843022231</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>385.5535753042714</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>238.8685738057837</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>389.1994422627341</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>107.1930383200163</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24144,10 +24144,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>65.48800580459471</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>135.3636110865063</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.5138512192987</v>
+        <v>193.366712517689</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>310.0913508178907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>372.3620695940665</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>362.4728018733914</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>92.70707971321161</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>220.3191676224753</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>110.9673617461688</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>34.78713549703929</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>98.55532181161425</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>216.236228642401</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>369.4479714591268</v>
+        <v>13.96496624043391</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25411,7 +25411,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>307.6042418648788</v>
       </c>
       <c r="W41" t="n">
-        <v>15.92976823438988</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.4479714591268</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>229.3936637186745</v>
       </c>
     </row>
     <row r="45">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>349074.8977990032</v>
+        <v>349074.8977990031</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349074.8977990032</v>
+        <v>349074.8977990031</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349074.8977990032</v>
+        <v>349074.8977990031</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>491063.9464457106</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>491063.9464457106</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>491063.9464457106</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>491063.9464457106</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491063.9464457106</v>
+        <v>491063.9464457105</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96161.87004965881</v>
+        <v>96161.8700496588</v>
       </c>
       <c r="C2" t="n">
-        <v>96161.87004965881</v>
+        <v>96161.8700496588</v>
       </c>
       <c r="D2" t="n">
         <v>96161.87004965881</v>
       </c>
       <c r="E2" t="n">
-        <v>96161.8700496588</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="F2" t="n">
-        <v>96161.87004965883</v>
+        <v>96161.87004965881</v>
       </c>
       <c r="G2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="H2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="I2" t="n">
         <v>135276.4913831621</v>
@@ -26340,7 +26340,7 @@
         <v>135276.4913831621</v>
       </c>
       <c r="K2" t="n">
-        <v>135276.491383162</v>
+        <v>135276.4913831621</v>
       </c>
       <c r="L2" t="n">
         <v>135276.4913831621</v>
@@ -26352,7 +26352,7 @@
         <v>135276.4913831621</v>
       </c>
       <c r="O2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="P2" t="n">
         <v>135276.4913831621</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66662.77529471672</v>
+        <v>66662.77529471669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>58530.97957731679</v>
+        <v>58530.97957731676</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>24896.51517712573</v>
       </c>
       <c r="G4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="H4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="I4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
       <c r="J4" t="n">
         <v>35023.37484795162</v>
@@ -26447,19 +26447,19 @@
         <v>35023.37484795162</v>
       </c>
       <c r="L4" t="n">
+        <v>35023.37484795161</v>
+      </c>
+      <c r="M4" t="n">
         <v>35023.37484795162</v>
       </c>
-      <c r="M4" t="n">
-        <v>35023.37484795161</v>
-      </c>
       <c r="N4" t="n">
-        <v>35023.37484795161</v>
+        <v>35023.37484795162</v>
       </c>
       <c r="O4" t="n">
         <v>35023.37484795161</v>
       </c>
       <c r="P4" t="n">
-        <v>35023.37484795162</v>
+        <v>35023.37484795161</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>25797.18813722234</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130350.7339243992</v>
+        <v>-131090.0905363148</v>
       </c>
       <c r="C6" t="n">
-        <v>11840.56673531075</v>
+        <v>11101.21012339507</v>
       </c>
       <c r="D6" t="n">
-        <v>11840.56673531075</v>
+        <v>11101.2101233951</v>
       </c>
       <c r="E6" t="n">
-        <v>45468.16673531073</v>
+        <v>44728.81012339509</v>
       </c>
       <c r="F6" t="n">
-        <v>45468.16673531076</v>
+        <v>44728.81012339509</v>
       </c>
       <c r="G6" t="n">
-        <v>-6994.583321263985</v>
+        <v>-7489.473549845228</v>
       </c>
       <c r="H6" t="n">
-        <v>59668.19197345276</v>
+        <v>59173.30174487147</v>
       </c>
       <c r="I6" t="n">
-        <v>59668.19197345276</v>
+        <v>59173.3017448715</v>
       </c>
       <c r="J6" t="n">
-        <v>-51346.27337153739</v>
+        <v>-51841.16360011871</v>
       </c>
       <c r="K6" t="n">
-        <v>59668.1919734527</v>
+        <v>59173.30174487148</v>
       </c>
       <c r="L6" t="n">
-        <v>59668.19197345273</v>
+        <v>59173.3017448715</v>
       </c>
       <c r="M6" t="n">
-        <v>59668.19197345281</v>
+        <v>59173.30174487148</v>
       </c>
       <c r="N6" t="n">
-        <v>59668.19197345278</v>
+        <v>59173.30174487148</v>
       </c>
       <c r="O6" t="n">
-        <v>1137.21239613599</v>
+        <v>642.3221675547029</v>
       </c>
       <c r="P6" t="n">
-        <v>59668.19197345276</v>
+        <v>59173.3017448715</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35108,13 +35108,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,16 +35254,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35336,10 +35336,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201043</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35582,7 +35582,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35649,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36375,10 +36375,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
-        <v>469.6822035600076</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>88.52591951400973</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>466.3240083888434</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L29" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -37074,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M32" t="n">
-        <v>469.6822035600076</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697544</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37232,10 +37232,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37320,10 +37320,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908046</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -37958,7 +37958,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>640.544895229762</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
